--- a/doc/字库.xlsx
+++ b/doc/字库.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8B4370-8D43-4363-87CF-A8BCC0EE1378}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F2D55-DDB4-45EC-8D26-370591335B3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="日文版字库" sheetId="1" r:id="rId1"/>
     <sheet name="英文版字库" sheetId="3" r:id="rId2"/>
     <sheet name="目录结构" sheetId="2" r:id="rId3"/>
+    <sheet name="字数统计" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="870">
   <si>
     <t>ぁ</t>
   </si>
@@ -1542,10 +1543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>住</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1969,10 +1966,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2812,19 +2805,518 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A40={me}</t>
-    </r>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日版目录结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文版目录结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj/GF_farm.bin</t>
+  </si>
+  <si>
+    <t>objcg/event_s.bin</t>
+  </si>
+  <si>
+    <t>objcg/evch.bin</t>
+  </si>
+  <si>
+    <t>objcg/status.bin</t>
+  </si>
+  <si>
+    <t>obj/save_load.bin</t>
+  </si>
+  <si>
+    <t>objcg/slp.bin</t>
+  </si>
+  <si>
+    <t>obj/GF_MG1.bin</t>
+  </si>
+  <si>
+    <t>objcg/MG1.bin</t>
+  </si>
+  <si>
+    <t>obj/GF_MG2.bin</t>
+  </si>
+  <si>
+    <t>objcg/MG2.bin</t>
+  </si>
+  <si>
+    <t>obj/GF_MG3.bin</t>
+  </si>
+  <si>
+    <t>objcg/MG3.bin</t>
+  </si>
+  <si>
+    <t>obj/GF_MG4.bin</t>
+  </si>
+  <si>
+    <t>objcg/MG4.bin</t>
+  </si>
+  <si>
+    <t>obj/GF_MG5.bin</t>
+  </si>
+  <si>
+    <t>objcg/MG5.bin</t>
+  </si>
+  <si>
+    <t>obj/GF_TITLE.bin</t>
+  </si>
+  <si>
+    <t>obj/GF_STAFF.bin</t>
+  </si>
+  <si>
+    <t>objcg/MesEv.bin</t>
+  </si>
+  <si>
+    <t>obj/GF_swind.bin</t>
+  </si>
+  <si>
+    <t>obj/gf_mcard.bin</t>
+  </si>
+  <si>
+    <t>愛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>営</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>遠</t>
+  </si>
+  <si>
+    <t>鍛</t>
+  </si>
+  <si>
+    <t>貨</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>壊</t>
+  </si>
+  <si>
+    <t>穫</t>
+  </si>
+  <si>
+    <t>覚</t>
+  </si>
+  <si>
+    <t>楽</t>
+  </si>
+  <si>
+    <t>館</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>願</t>
+  </si>
+  <si>
+    <t>顔</t>
+  </si>
+  <si>
+    <t>機</t>
+  </si>
+  <si>
+    <t>気</t>
+  </si>
+  <si>
+    <t>帰</t>
+  </si>
+  <si>
+    <t>記</t>
+  </si>
+  <si>
+    <t>義</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>強</t>
+  </si>
+  <si>
+    <t>業</t>
+  </si>
+  <si>
+    <t>銀</t>
+  </si>
+  <si>
+    <t>鶏</t>
+  </si>
+  <si>
+    <t>競</t>
+  </si>
+  <si>
+    <t>計</t>
+  </si>
+  <si>
+    <t>結</t>
+  </si>
+  <si>
+    <t>決</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>現</t>
+  </si>
+  <si>
+    <t>個</t>
+  </si>
+  <si>
+    <t>庫</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>鉱</t>
+  </si>
+  <si>
+    <t>広</t>
+  </si>
+  <si>
+    <t>購</t>
+  </si>
+  <si>
+    <t>雑</t>
+  </si>
+  <si>
+    <t>産</t>
+  </si>
+  <si>
+    <t>残</t>
+  </si>
+  <si>
+    <t>飼</t>
+  </si>
+  <si>
+    <t>試</t>
+  </si>
+  <si>
+    <t>紙</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>直</t>
+  </si>
+  <si>
+    <t>質</t>
+  </si>
+  <si>
+    <t>実</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>樹</t>
+  </si>
+  <si>
+    <t>習</t>
+  </si>
+  <si>
+    <t>終</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>除</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>焼</t>
+  </si>
+  <si>
+    <t>勝</t>
+  </si>
+  <si>
+    <t>諸</t>
+  </si>
+  <si>
+    <t>場</t>
+  </si>
+  <si>
+    <t>植</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>診</t>
+  </si>
+  <si>
+    <t>説</t>
+  </si>
+  <si>
+    <t>浅</t>
+  </si>
+  <si>
+    <t>選</t>
+  </si>
+  <si>
+    <t>側</t>
+  </si>
+  <si>
+    <t>択</t>
+  </si>
+  <si>
+    <t>誕</t>
+  </si>
+  <si>
+    <t>談</t>
+  </si>
+  <si>
+    <t>築</t>
+  </si>
+  <si>
+    <t>頂</t>
+  </si>
+  <si>
+    <t>調</t>
+  </si>
+  <si>
+    <t>長</t>
+  </si>
+  <si>
+    <t>釣</t>
+  </si>
+  <si>
+    <t>帳</t>
+  </si>
+  <si>
+    <t>伝</t>
+  </si>
+  <si>
+    <t>図</t>
+  </si>
+  <si>
+    <t>頭</t>
+  </si>
+  <si>
+    <t>島</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>銅</t>
+  </si>
+  <si>
+    <t>馬</t>
+  </si>
+  <si>
+    <t>敗</t>
+  </si>
+  <si>
+    <t>売</t>
+  </si>
+  <si>
+    <t>買</t>
+  </si>
+  <si>
+    <t>罰</t>
+  </si>
+  <si>
+    <t>備</t>
+  </si>
+  <si>
+    <t>氷</t>
+  </si>
+  <si>
+    <t>負</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>閉</t>
+  </si>
+  <si>
+    <t>満</t>
+  </si>
+  <si>
+    <t>謎</t>
+  </si>
+  <si>
+    <t>聞</t>
+  </si>
+  <si>
+    <t>約</t>
+  </si>
+  <si>
+    <t>薬</t>
+  </si>
+  <si>
+    <t>優</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>養</t>
+  </si>
+  <si>
+    <t>葉</t>
+  </si>
+  <si>
+    <t>様</t>
+  </si>
+  <si>
+    <t>裏</t>
+  </si>
+  <si>
+    <t>緑</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>練</t>
+  </si>
+  <si>
+    <t>連</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>読</t>
+  </si>
+  <si>
+    <t>週</t>
+  </si>
+  <si>
+    <t>過</t>
+  </si>
+  <si>
+    <t>況</t>
+  </si>
+  <si>
+    <t>啓</t>
+  </si>
+  <si>
+    <t>継</t>
+  </si>
+  <si>
+    <t>込</t>
+  </si>
+  <si>
+    <t>適</t>
+  </si>
+  <si>
+    <t>覧</t>
+  </si>
+  <si>
+    <t>労</t>
+  </si>
+  <si>
+    <t>貯</t>
+  </si>
+  <si>
+    <t>姉</t>
+  </si>
+  <si>
+    <t>絵</t>
+  </si>
+  <si>
+    <t>紛</t>
+  </si>
+  <si>
+    <t>報</t>
+  </si>
+  <si>
+    <t>FFFE={br}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400D={farm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF1=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF2=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF3=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF4=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF5=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF6=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF7=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF8=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FF9=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FFA=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400B=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2839,13 +3331,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EFF={br}</t>
+      <t>FFF={ed}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0FFC={wt}</t>
+  </si>
+  <si>
+    <t>0FFC={wt}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FFB={cs}</t>
+  </si>
+  <si>
+    <t>0FFB={cs}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>F</t>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -2855,17 +3361,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FFF={end}</t>
+      <t>lear screen</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FC0F={enter}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>0</t>
+      <t>w</t>
     </r>
     <r>
       <rPr>
@@ -2875,543 +3377,90 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>D40={farm}</t>
+      <t>ait</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FD0F= </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日版目录结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文版目录结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj/GF_farm.bin</t>
-  </si>
-  <si>
-    <t>objcg/event_s.bin</t>
-  </si>
-  <si>
-    <t>objcg/evch.bin</t>
-  </si>
-  <si>
-    <t>objcg/status.bin</t>
-  </si>
-  <si>
-    <t>obj/save_load.bin</t>
-  </si>
-  <si>
-    <t>objcg/slp.bin</t>
-  </si>
-  <si>
-    <t>obj/GF_MG1.bin</t>
-  </si>
-  <si>
-    <t>objcg/MG1.bin</t>
-  </si>
-  <si>
-    <t>obj/GF_MG2.bin</t>
-  </si>
-  <si>
-    <t>objcg/MG2.bin</t>
-  </si>
-  <si>
-    <t>obj/GF_MG3.bin</t>
-  </si>
-  <si>
-    <t>objcg/MG3.bin</t>
-  </si>
-  <si>
-    <t>obj/GF_MG4.bin</t>
-  </si>
-  <si>
-    <t>objcg/MG4.bin</t>
-  </si>
-  <si>
-    <t>obj/GF_MG5.bin</t>
-  </si>
-  <si>
-    <t>objcg/MG5.bin</t>
-  </si>
-  <si>
-    <t>obj/GF_TITLE.bin</t>
-  </si>
-  <si>
-    <t>obj/GF_STAFF.bin</t>
-  </si>
-  <si>
-    <t>objcg/MesEv.bin</t>
-  </si>
-  <si>
-    <t>obj/GF_swind.bin</t>
-  </si>
-  <si>
-    <t>obj/gf_mcard.bin</t>
-  </si>
-  <si>
-    <t>愛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>営</t>
-  </si>
-  <si>
-    <t>園</t>
-  </si>
-  <si>
-    <t>遠</t>
-  </si>
-  <si>
-    <t>鍛</t>
-  </si>
-  <si>
-    <t>貨</t>
-  </si>
-  <si>
-    <t>開</t>
-  </si>
-  <si>
-    <t>壊</t>
-  </si>
-  <si>
-    <t>穫</t>
-  </si>
-  <si>
-    <t>覚</t>
-  </si>
-  <si>
-    <t>楽</t>
-  </si>
-  <si>
-    <t>館</t>
-  </si>
-  <si>
-    <t>間</t>
-  </si>
-  <si>
-    <t>願</t>
-  </si>
-  <si>
-    <t>顔</t>
-  </si>
-  <si>
-    <t>機</t>
-  </si>
-  <si>
-    <t>気</t>
-  </si>
-  <si>
-    <t>帰</t>
-  </si>
-  <si>
-    <t>記</t>
-  </si>
-  <si>
-    <t>義</t>
-  </si>
-  <si>
-    <t>魚</t>
-  </si>
-  <si>
-    <t>強</t>
-  </si>
-  <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>銀</t>
-  </si>
-  <si>
-    <t>鶏</t>
-  </si>
-  <si>
-    <t>競</t>
-  </si>
-  <si>
-    <t>計</t>
-  </si>
-  <si>
-    <t>結</t>
-  </si>
-  <si>
-    <t>決</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>現</t>
-  </si>
-  <si>
-    <t>個</t>
-  </si>
-  <si>
-    <t>庫</t>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>鉱</t>
-  </si>
-  <si>
-    <t>広</t>
-  </si>
-  <si>
-    <t>購</t>
-  </si>
-  <si>
-    <t>雑</t>
-  </si>
-  <si>
-    <t>産</t>
-  </si>
-  <si>
-    <t>残</t>
-  </si>
-  <si>
-    <t>飼</t>
-  </si>
-  <si>
-    <t>試</t>
-  </si>
-  <si>
-    <t>紙</t>
-  </si>
-  <si>
-    <t>時</t>
-  </si>
-  <si>
-    <t>直</t>
-  </si>
-  <si>
-    <t>質</t>
-  </si>
-  <si>
-    <t>実</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>樹</t>
-  </si>
-  <si>
-    <t>習</t>
-  </si>
-  <si>
-    <t>終</t>
-  </si>
-  <si>
-    <t>書</t>
-  </si>
-  <si>
-    <t>除</t>
-  </si>
-  <si>
-    <t>将</t>
-  </si>
-  <si>
-    <t>焼</t>
-  </si>
-  <si>
-    <t>勝</t>
-  </si>
-  <si>
-    <t>諸</t>
-  </si>
-  <si>
-    <t>場</t>
-  </si>
-  <si>
-    <t>植</t>
-  </si>
-  <si>
-    <t>親</t>
-  </si>
-  <si>
-    <t>診</t>
-  </si>
-  <si>
-    <t>説</t>
-  </si>
-  <si>
-    <t>浅</t>
-  </si>
-  <si>
-    <t>選</t>
-  </si>
-  <si>
-    <t>側</t>
-  </si>
-  <si>
-    <t>択</t>
-  </si>
-  <si>
-    <t>誕</t>
-  </si>
-  <si>
-    <t>談</t>
-  </si>
-  <si>
-    <t>築</t>
-  </si>
-  <si>
-    <t>頂</t>
-  </si>
-  <si>
-    <t>調</t>
-  </si>
-  <si>
-    <t>長</t>
-  </si>
-  <si>
-    <t>釣</t>
-  </si>
-  <si>
-    <t>帳</t>
-  </si>
-  <si>
-    <t>伝</t>
-  </si>
-  <si>
-    <t>図</t>
-  </si>
-  <si>
-    <t>頭</t>
-  </si>
-  <si>
-    <t>島</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>銅</t>
-  </si>
-  <si>
-    <t>馬</t>
-  </si>
-  <si>
-    <t>敗</t>
-  </si>
-  <si>
-    <t>売</t>
-  </si>
-  <si>
-    <t>買</t>
-  </si>
-  <si>
-    <t>罰</t>
-  </si>
-  <si>
-    <t>備</t>
-  </si>
-  <si>
-    <t>氷</t>
-  </si>
-  <si>
-    <t>負</t>
-  </si>
-  <si>
-    <t>風</t>
-  </si>
-  <si>
-    <t>閉</t>
-  </si>
-  <si>
-    <t>満</t>
-  </si>
-  <si>
-    <t>謎</t>
-  </si>
-  <si>
-    <t>聞</t>
-  </si>
-  <si>
-    <t>約</t>
-  </si>
-  <si>
-    <t>薬</t>
-  </si>
-  <si>
-    <t>優</t>
-  </si>
-  <si>
-    <t>遊</t>
-  </si>
-  <si>
-    <t>養</t>
-  </si>
-  <si>
-    <t>葉</t>
-  </si>
-  <si>
-    <t>様</t>
-  </si>
-  <si>
-    <t>裏</t>
-  </si>
-  <si>
-    <t>緑</t>
-  </si>
-  <si>
-    <t>冷</t>
-  </si>
-  <si>
-    <t>練</t>
-  </si>
-  <si>
-    <t>連</t>
-  </si>
-  <si>
-    <t>話</t>
-  </si>
-  <si>
-    <t>読</t>
-  </si>
-  <si>
-    <t>週</t>
-  </si>
-  <si>
-    <t>過</t>
-  </si>
-  <si>
-    <t>況</t>
-  </si>
-  <si>
-    <t>啓</t>
-  </si>
-  <si>
-    <t>継</t>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reak line</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400A={boy}</t>
+  </si>
+  <si>
+    <t>自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0FFD=_</t>
+  </si>
+  <si>
+    <t>400C={dog}</t>
+  </si>
+  <si>
+    <t>400C={dog}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>込</t>
-  </si>
-  <si>
-    <t>適</t>
-  </si>
-  <si>
-    <t>覧</t>
-  </si>
-  <si>
-    <t>労</t>
-  </si>
-  <si>
-    <t>貯</t>
-  </si>
-  <si>
-    <t>姉</t>
-  </si>
-  <si>
-    <t>絵</t>
-  </si>
-  <si>
-    <t>紛</t>
-  </si>
-  <si>
-    <t>報</t>
-  </si>
-  <si>
-    <t>0FFC={enter}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFF={ed}</t>
+  </si>
+  <si>
+    <t>400D={farm}</t>
   </si>
   <si>
     <t>FFFE={br}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400A={me}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400D={farm}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF1=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF2=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF3=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF4=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF5=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF6=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF7=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF8=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FF9=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FFA=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0FFB=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400C=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400B=</t>
+  </si>
+  <si>
+    <t>[horse]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0FFD= </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3462,7 +3511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3471,6 +3520,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3492,16 +3544,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3530,7 +3582,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276725" y="3076575"/>
+          <a:off x="3971925" y="2628900"/>
           <a:ext cx="2400300" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3549,13 +3601,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3864,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D752"/>
+  <dimension ref="A1:D753"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="C193" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4408,7 +4460,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B45" s="3">
         <v>44</v>
@@ -4420,7 +4472,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B46" s="3">
         <v>45</v>
@@ -6424,14 +6476,14 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>166</v>
+        <v>869</v>
       </c>
       <c r="B213" s="3">
         <v>212</v>
       </c>
       <c r="C213" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>00D4=X</v>
+        <v>00D4=※</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -6580,14 +6632,14 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>214</v>
+        <v>867</v>
       </c>
       <c r="B226" s="3">
         <v>225</v>
       </c>
       <c r="C226" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>00E1=[animal]</v>
+        <v>00E1=[horse]</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -6784,7 +6836,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B243" s="3">
         <v>242</v>
@@ -6796,7 +6848,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B244" s="3">
         <v>243</v>
@@ -6916,7 +6968,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B254" s="3">
         <v>253</v>
@@ -6940,7 +6992,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B256" s="3">
         <v>255</v>
@@ -6952,7 +7004,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B257" s="3">
         <v>256</v>
@@ -7060,7 +7112,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B266" s="3">
         <v>265</v>
@@ -7132,7 +7184,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B272" s="3">
         <v>271</v>
@@ -7180,7 +7232,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B276" s="3">
         <v>275</v>
@@ -7204,7 +7256,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B278" s="3">
         <v>277</v>
@@ -7276,7 +7328,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B284" s="3">
         <v>283</v>
@@ -7288,7 +7340,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B285" s="3">
         <v>284</v>
@@ -7300,7 +7352,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B286" s="3">
         <v>285</v>
@@ -7336,7 +7388,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B289" s="3">
         <v>288</v>
@@ -7360,7 +7412,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B291" s="3">
         <v>290</v>
@@ -7408,7 +7460,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B295" s="3">
         <v>294</v>
@@ -7420,7 +7472,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B296" s="3">
         <v>295</v>
@@ -7456,7 +7508,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B299" s="3">
         <v>298</v>
@@ -7468,7 +7520,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B300" s="3">
         <v>299</v>
@@ -7492,7 +7544,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B302" s="3">
         <v>301</v>
@@ -7516,7 +7568,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B304" s="3">
         <v>303</v>
@@ -7552,7 +7604,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B307" s="3">
         <v>306</v>
@@ -7612,7 +7664,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B312" s="3">
         <v>311</v>
@@ -7636,7 +7688,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B314" s="3">
         <v>313</v>
@@ -7660,7 +7712,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B316" s="3">
         <v>315</v>
@@ -7696,7 +7748,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B319" s="3">
         <v>318</v>
@@ -7768,7 +7820,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B325" s="3">
         <v>324</v>
@@ -7792,7 +7844,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B327" s="3">
         <v>326</v>
@@ -7804,7 +7856,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B328" s="3">
         <v>327</v>
@@ -7840,7 +7892,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B331" s="3">
         <v>330</v>
@@ -7852,7 +7904,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B332" s="3">
         <v>331</v>
@@ -7888,7 +7940,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B335" s="3">
         <v>334</v>
@@ -7984,7 +8036,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B343" s="3">
         <v>342</v>
@@ -8020,7 +8072,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B346" s="3">
         <v>345</v>
@@ -8056,7 +8108,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B349" s="3">
         <v>348</v>
@@ -8080,7 +8132,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B351" s="3">
         <v>350</v>
@@ -8128,7 +8180,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B355" s="3">
         <v>354</v>
@@ -8140,7 +8192,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B356" s="3">
         <v>355</v>
@@ -8152,7 +8204,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B357" s="3">
         <v>356</v>
@@ -8380,7 +8432,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B376" s="3">
         <v>375</v>
@@ -8464,7 +8516,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B383" s="3">
         <v>382</v>
@@ -8512,7 +8564,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B387" s="3">
         <v>386</v>
@@ -8524,7 +8576,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B388" s="3">
         <v>387</v>
@@ -8608,7 +8660,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B395" s="3">
         <v>394</v>
@@ -8668,7 +8720,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B400" s="3">
         <v>399</v>
@@ -8680,14 +8732,14 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
-        <v>343</v>
+        <v>857</v>
       </c>
       <c r="B401" s="3">
         <v>400</v>
       </c>
       <c r="C401" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0190=目</v>
+        <v>0190=自</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -8728,7 +8780,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B405" s="3">
         <v>404</v>
@@ -8776,7 +8828,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B409" s="3">
         <v>408</v>
@@ -8812,7 +8864,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B412" s="3">
         <v>411</v>
@@ -8836,7 +8888,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B414" s="3">
         <v>413</v>
@@ -8896,7 +8948,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B419" s="3">
         <v>418</v>
@@ -8944,7 +8996,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B423" s="3">
         <v>422</v>
@@ -8968,7 +9020,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B425" s="3">
         <v>424</v>
@@ -9016,19 +9068,19 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
-        <v>364</v>
+        <v>862</v>
       </c>
       <c r="B429" s="3">
         <v>428</v>
       </c>
       <c r="C429" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>01AC=呕</v>
+        <v>01AC=收</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B430" s="3">
         <v>429</v>
@@ -9040,7 +9092,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B431" s="3">
         <v>430</v>
@@ -9052,7 +9104,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B432" s="3">
         <v>431</v>
@@ -9064,7 +9116,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B433" s="3">
         <v>432</v>
@@ -9076,7 +9128,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B434" s="3">
         <v>433</v>
@@ -9088,7 +9140,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B435" s="3">
         <v>434</v>
@@ -9100,7 +9152,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B436" s="3">
         <v>435</v>
@@ -9112,7 +9164,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B437" s="3">
         <v>436</v>
@@ -9124,7 +9176,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B438" s="3">
         <v>437</v>
@@ -9136,7 +9188,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B439" s="3">
         <v>438</v>
@@ -9148,7 +9200,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B440" s="3">
         <v>439</v>
@@ -9160,7 +9212,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B441" s="3">
         <v>440</v>
@@ -9172,7 +9224,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B442" s="3">
         <v>441</v>
@@ -9184,7 +9236,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B443" s="3">
         <v>442</v>
@@ -9196,7 +9248,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B444" s="3">
         <v>443</v>
@@ -9208,7 +9260,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B445" s="3">
         <v>444</v>
@@ -9220,7 +9272,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B446" s="3">
         <v>445</v>
@@ -9232,7 +9284,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B447" s="3">
         <v>446</v>
@@ -9244,7 +9296,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B448" s="3">
         <v>447</v>
@@ -9256,7 +9308,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B449" s="3">
         <v>448</v>
@@ -9268,7 +9320,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B450" s="3">
         <v>449</v>
@@ -9280,7 +9332,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B451" s="3">
         <v>450</v>
@@ -9292,7 +9344,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B452" s="3">
         <v>451</v>
@@ -9304,7 +9356,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B453" s="3">
         <v>452</v>
@@ -9316,7 +9368,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B454" s="3">
         <v>453</v>
@@ -9328,7 +9380,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B455" s="3">
         <v>454</v>
@@ -9340,7 +9392,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B456" s="3">
         <v>455</v>
@@ -9352,7 +9404,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B457" s="3">
         <v>456</v>
@@ -9364,7 +9416,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B458" s="3">
         <v>457</v>
@@ -9376,7 +9428,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B459" s="3">
         <v>458</v>
@@ -9388,7 +9440,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B460" s="3">
         <v>459</v>
@@ -9400,7 +9452,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B461" s="3">
         <v>460</v>
@@ -9412,7 +9464,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B462" s="3">
         <v>461</v>
@@ -9424,7 +9476,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B463" s="3">
         <v>462</v>
@@ -9436,7 +9488,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B464" s="3">
         <v>463</v>
@@ -9448,7 +9500,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B465" s="3">
         <v>464</v>
@@ -9460,7 +9512,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B466" s="3">
         <v>465</v>
@@ -9472,7 +9524,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B467" s="3">
         <v>466</v>
@@ -9484,7 +9536,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B468" s="3">
         <v>467</v>
@@ -9496,7 +9548,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="3">
         <v>468</v>
@@ -9508,7 +9560,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B470" s="3">
         <v>469</v>
@@ -9520,7 +9572,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B471" s="3">
         <v>470</v>
@@ -9532,7 +9584,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B472" s="3">
         <v>471</v>
@@ -9544,7 +9596,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B473" s="3">
         <v>472</v>
@@ -9556,7 +9608,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B474" s="3">
         <v>473</v>
@@ -9568,7 +9620,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B475" s="3">
         <v>474</v>
@@ -9580,7 +9632,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B476" s="3">
         <v>475</v>
@@ -9592,7 +9644,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B477" s="3">
         <v>476</v>
@@ -9604,7 +9656,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B478" s="3">
         <v>477</v>
@@ -9616,7 +9668,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B479" s="3">
         <v>478</v>
@@ -9628,7 +9680,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B480" s="3">
         <v>479</v>
@@ -9640,7 +9692,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B481" s="3">
         <v>480</v>
@@ -9652,7 +9704,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B482" s="3">
         <v>481</v>
@@ -9664,7 +9716,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B483" s="3">
         <v>482</v>
@@ -9676,7 +9728,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B484" s="3">
         <v>483</v>
@@ -9688,7 +9740,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B485" s="3">
         <v>484</v>
@@ -9700,7 +9752,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B486" s="3">
         <v>485</v>
@@ -9712,7 +9764,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B487" s="3">
         <v>486</v>
@@ -9724,7 +9776,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B488" s="3">
         <v>487</v>
@@ -9736,7 +9788,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B489" s="3">
         <v>488</v>
@@ -9748,7 +9800,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B490" s="3">
         <v>489</v>
@@ -9760,7 +9812,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B491" s="3">
         <v>490</v>
@@ -9772,7 +9824,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B492" s="3">
         <v>491</v>
@@ -9784,7 +9836,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B493" s="3">
         <v>492</v>
@@ -9796,7 +9848,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B494" s="3">
         <v>493</v>
@@ -9808,7 +9860,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B495" s="3">
         <v>494</v>
@@ -9820,7 +9872,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B496" s="3">
         <v>495</v>
@@ -9832,7 +9884,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B497" s="3">
         <v>496</v>
@@ -9844,7 +9896,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B498" s="3">
         <v>497</v>
@@ -9856,7 +9908,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B499" s="3">
         <v>498</v>
@@ -9868,7 +9920,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B500" s="3">
         <v>499</v>
@@ -9880,7 +9932,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="4" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B501" s="3">
         <v>500</v>
@@ -9892,7 +9944,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B502" s="3">
         <v>501</v>
@@ -9904,7 +9956,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B503" s="3">
         <v>502</v>
@@ -9916,7 +9968,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B504" s="3">
         <v>503</v>
@@ -9928,7 +9980,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B505" s="3">
         <v>504</v>
@@ -9940,7 +9992,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B506" s="3">
         <v>505</v>
@@ -9952,7 +10004,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B507" s="3">
         <v>506</v>
@@ -9964,7 +10016,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B508" s="3">
         <v>507</v>
@@ -9976,7 +10028,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B509" s="3">
         <v>508</v>
@@ -9988,7 +10040,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B510" s="3">
         <v>509</v>
@@ -10000,7 +10052,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B511" s="3">
         <v>510</v>
@@ -10012,7 +10064,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B512" s="3">
         <v>511</v>
@@ -10024,7 +10076,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B513" s="3">
         <v>512</v>
@@ -10036,7 +10088,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B514" s="3">
         <v>513</v>
@@ -10048,7 +10100,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="4" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B515" s="3">
         <v>514</v>
@@ -10060,7 +10112,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="4" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B516" s="3">
         <v>515</v>
@@ -10072,7 +10124,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="4" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B517" s="3">
         <v>516</v>
@@ -10084,7 +10136,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B518" s="3">
         <v>517</v>
@@ -10096,7 +10148,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B519" s="3">
         <v>518</v>
@@ -10108,7 +10160,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B520" s="3">
         <v>519</v>
@@ -10120,7 +10172,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B521" s="3">
         <v>520</v>
@@ -10132,7 +10184,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B522" s="3">
         <v>521</v>
@@ -10144,7 +10196,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B523" s="3">
         <v>522</v>
@@ -10156,7 +10208,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="4" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B524" s="3">
         <v>523</v>
@@ -10168,7 +10220,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B525" s="3">
         <v>524</v>
@@ -10180,7 +10232,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B526" s="3">
         <v>525</v>
@@ -10192,7 +10244,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B527" s="3">
         <v>526</v>
@@ -10204,7 +10256,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B528" s="3">
         <v>527</v>
@@ -10216,7 +10268,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B529" s="3">
         <v>528</v>
@@ -10228,7 +10280,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B530" s="3">
         <v>529</v>
@@ -10240,7 +10292,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B531" s="3">
         <v>530</v>
@@ -10252,7 +10304,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="4" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B532" s="3">
         <v>531</v>
@@ -10264,7 +10316,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B533" s="3">
         <v>532</v>
@@ -10276,7 +10328,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B534" s="3">
         <v>533</v>
@@ -10288,7 +10340,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B535" s="3">
         <v>534</v>
@@ -10300,7 +10352,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B536" s="3">
         <v>535</v>
@@ -10312,7 +10364,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="4" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B537" s="3">
         <v>536</v>
@@ -10324,7 +10376,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B538" s="3">
         <v>537</v>
@@ -10336,7 +10388,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B539" s="3">
         <v>538</v>
@@ -10348,7 +10400,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B540" s="3">
         <v>539</v>
@@ -10360,7 +10412,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B541" s="3">
         <v>540</v>
@@ -10372,7 +10424,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B542" s="3">
         <v>541</v>
@@ -10384,7 +10436,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="4" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B543" s="3">
         <v>542</v>
@@ -10396,7 +10448,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B544" s="3">
         <v>543</v>
@@ -10408,7 +10460,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B545" s="3">
         <v>544</v>
@@ -10420,7 +10472,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B546" s="3">
         <v>545</v>
@@ -10432,7 +10484,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B547" s="3">
         <v>546</v>
@@ -10444,7 +10496,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B548" s="3">
         <v>547</v>
@@ -10456,7 +10508,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="4" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B549" s="3">
         <v>548</v>
@@ -10468,7 +10520,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B550" s="3">
         <v>549</v>
@@ -10480,7 +10532,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B551" s="3">
         <v>550</v>
@@ -10492,7 +10544,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="4" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B552" s="3">
         <v>551</v>
@@ -10504,7 +10556,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B553" s="3">
         <v>552</v>
@@ -10516,7 +10568,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="4" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B554" s="3">
         <v>553</v>
@@ -10528,7 +10580,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B555" s="3">
         <v>554</v>
@@ -10540,7 +10592,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B556" s="3">
         <v>555</v>
@@ -10552,7 +10604,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B557" s="3">
         <v>556</v>
@@ -10564,7 +10616,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="4" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B558" s="3">
         <v>557</v>
@@ -10576,7 +10628,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B559" s="3">
         <v>558</v>
@@ -10588,7 +10640,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B560" s="3">
         <v>559</v>
@@ -10600,7 +10652,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B561" s="3">
         <v>560</v>
@@ -10612,7 +10664,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B562" s="3">
         <v>561</v>
@@ -10624,7 +10676,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B563" s="3">
         <v>562</v>
@@ -10636,7 +10688,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B564" s="3">
         <v>563</v>
@@ -10648,7 +10700,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B565" s="3">
         <v>564</v>
@@ -10660,19 +10712,19 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="4" t="s">
-        <v>471</v>
+        <v>861</v>
       </c>
       <c r="B566" s="3">
         <v>565</v>
       </c>
       <c r="C566" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>0235=入</v>
+        <v>0235=込</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B567" s="3">
         <v>566</v>
@@ -10684,7 +10736,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B568" s="3">
         <v>567</v>
@@ -10696,7 +10748,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B569" s="3">
         <v>568</v>
@@ -10708,7 +10760,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B570" s="3">
         <v>569</v>
@@ -10720,7 +10772,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B571" s="3">
         <v>570</v>
@@ -10732,7 +10784,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="4" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="B572" s="3">
         <v>571</v>
@@ -10744,7 +10796,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B573" s="3">
         <v>572</v>
@@ -10756,7 +10808,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="4" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B574" s="3">
         <v>573</v>
@@ -10768,7 +10820,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="4" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B575" s="3">
         <v>574</v>
@@ -10780,7 +10832,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="4" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B576" s="3">
         <v>575</v>
@@ -10792,7 +10844,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B577" s="3">
         <v>576</v>
@@ -10804,7 +10856,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B578" s="3">
         <v>577</v>
@@ -10816,7 +10868,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B579" s="3">
         <v>578</v>
@@ -10828,7 +10880,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B580" s="3">
         <v>579</v>
@@ -10840,7 +10892,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="4" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B581" s="3">
         <v>580</v>
@@ -10852,7 +10904,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B582" s="3">
         <v>581</v>
@@ -10864,7 +10916,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B583" s="3">
         <v>582</v>
@@ -10876,7 +10928,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B584" s="3">
         <v>583</v>
@@ -10888,7 +10940,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B585" s="3">
         <v>584</v>
@@ -10900,7 +10952,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B586" s="3">
         <v>585</v>
@@ -10912,7 +10964,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="4" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B587" s="3">
         <v>586</v>
@@ -10924,7 +10976,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B588" s="3">
         <v>587</v>
@@ -10936,7 +10988,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B589" s="3">
         <v>588</v>
@@ -10948,7 +11000,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B590" s="3">
         <v>589</v>
@@ -10960,7 +11012,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="4" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B591" s="3">
         <v>590</v>
@@ -10972,7 +11024,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B592" s="3">
         <v>591</v>
@@ -10984,7 +11036,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B593" s="3">
         <v>592</v>
@@ -10996,7 +11048,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B594" s="3">
         <v>593</v>
@@ -11008,7 +11060,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B595" s="3">
         <v>594</v>
@@ -11020,7 +11072,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B596" s="3">
         <v>595</v>
@@ -11032,7 +11084,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B597" s="3">
         <v>596</v>
@@ -11044,7 +11096,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B598" s="3">
         <v>597</v>
@@ -11056,7 +11108,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="4" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B599" s="3">
         <v>598</v>
@@ -11068,7 +11120,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B600" s="3">
         <v>599</v>
@@ -11080,7 +11132,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B601" s="3">
         <v>600</v>
@@ -11092,7 +11144,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="4" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B602" s="3">
         <v>601</v>
@@ -11104,7 +11156,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B603" s="3">
         <v>602</v>
@@ -11116,7 +11168,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B604" s="3">
         <v>603</v>
@@ -11128,7 +11180,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B605" s="3">
         <v>604</v>
@@ -11140,7 +11192,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B606" s="3">
         <v>605</v>
@@ -11152,7 +11204,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B607" s="3">
         <v>606</v>
@@ -11164,7 +11216,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B608" s="3">
         <v>607</v>
@@ -11176,7 +11228,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B609" s="3">
         <v>608</v>
@@ -11188,7 +11240,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B610" s="3">
         <v>609</v>
@@ -11200,7 +11252,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B611" s="3">
         <v>610</v>
@@ -11212,7 +11264,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B612" s="3">
         <v>611</v>
@@ -11224,7 +11276,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B613" s="3">
         <v>612</v>
@@ -11236,7 +11288,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B614" s="3">
         <v>613</v>
@@ -11248,7 +11300,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B615" s="3">
         <v>614</v>
@@ -11260,7 +11312,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B616" s="3">
         <v>615</v>
@@ -11272,7 +11324,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B617" s="3">
         <v>616</v>
@@ -11284,7 +11336,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B618" s="3">
         <v>617</v>
@@ -11296,7 +11348,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B619" s="3">
         <v>618</v>
@@ -11308,7 +11360,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B620" s="3">
         <v>619</v>
@@ -11320,7 +11372,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B621" s="3">
         <v>620</v>
@@ -11332,7 +11384,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B622" s="3">
         <v>621</v>
@@ -11344,7 +11396,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B623" s="3">
         <v>622</v>
@@ -11356,7 +11408,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B624" s="3">
         <v>623</v>
@@ -11368,7 +11420,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="4" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B625" s="3">
         <v>624</v>
@@ -11380,7 +11432,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B626" s="3">
         <v>625</v>
@@ -11392,7 +11444,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B627" s="3">
         <v>626</v>
@@ -11416,7 +11468,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B629" s="3">
         <v>628</v>
@@ -11428,7 +11480,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B630" s="3">
         <v>629</v>
@@ -11440,7 +11492,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B631" s="3">
         <v>630</v>
@@ -11452,7 +11504,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="4" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B632" s="3">
         <v>631</v>
@@ -11464,7 +11516,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B633" s="3">
         <v>632</v>
@@ -11476,7 +11528,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B634" s="3">
         <v>633</v>
@@ -11488,7 +11540,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="4" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B635" s="3">
         <v>634</v>
@@ -11500,7 +11552,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B636" s="3">
         <v>635</v>
@@ -11512,7 +11564,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B637" s="3">
         <v>636</v>
@@ -11524,7 +11576,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B638" s="3">
         <v>637</v>
@@ -11536,7 +11588,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="4" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B639" s="3">
         <v>638</v>
@@ -11548,7 +11600,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="4" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B640" s="3">
         <v>639</v>
@@ -11560,7 +11612,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B641" s="3">
         <v>640</v>
@@ -11572,7 +11624,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B642" s="3">
         <v>641</v>
@@ -11584,7 +11636,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B643" s="3">
         <v>642</v>
@@ -11596,7 +11648,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="4" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B644" s="3">
         <v>643</v>
@@ -11608,7 +11660,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B645" s="3">
         <v>644</v>
@@ -11620,7 +11672,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B646" s="3">
         <v>645</v>
@@ -11632,7 +11684,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B647" s="3">
         <v>646</v>
@@ -11644,7 +11696,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B648" s="3">
         <v>647</v>
@@ -11656,7 +11708,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B649" s="3">
         <v>648</v>
@@ -11668,7 +11720,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B650" s="3">
         <v>649</v>
@@ -11680,7 +11732,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="4" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B651" s="3">
         <v>650</v>
@@ -11692,7 +11744,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B652" s="3">
         <v>651</v>
@@ -11704,7 +11756,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="4" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B653" s="3">
         <v>652</v>
@@ -11716,7 +11768,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="4" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B654" s="3">
         <v>653</v>
@@ -11728,7 +11780,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B655" s="3">
         <v>654</v>
@@ -11740,7 +11792,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B656" s="3">
         <v>655</v>
@@ -11752,7 +11804,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B657" s="3">
         <v>656</v>
@@ -11764,7 +11816,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B658" s="3">
         <v>657</v>
@@ -11776,7 +11828,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="4" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B659" s="3">
         <v>658</v>
@@ -11788,7 +11840,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B660" s="3">
         <v>659</v>
@@ -11800,7 +11852,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B661" s="3">
         <v>660</v>
@@ -11812,7 +11864,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B662" s="3">
         <v>661</v>
@@ -11824,7 +11876,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B663" s="3">
         <v>662</v>
@@ -11836,7 +11888,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B664" s="3">
         <v>663</v>
@@ -11848,7 +11900,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B665" s="3">
         <v>664</v>
@@ -11860,7 +11912,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B666" s="3">
         <v>665</v>
@@ -11872,7 +11924,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B667" s="3">
         <v>666</v>
@@ -11884,7 +11936,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B668" s="3">
         <v>667</v>
@@ -11896,7 +11948,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B669" s="3">
         <v>668</v>
@@ -11908,7 +11960,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="4" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B670" s="3">
         <v>669</v>
@@ -11920,7 +11972,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="4" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B671" s="3">
         <v>670</v>
@@ -11932,7 +11984,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B672" s="3">
         <v>671</v>
@@ -11944,7 +11996,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B673" s="3">
         <v>672</v>
@@ -11956,7 +12008,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="4" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B674" s="3">
         <v>673</v>
@@ -11968,7 +12020,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B675" s="3">
         <v>674</v>
@@ -11980,7 +12032,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B676" s="3">
         <v>675</v>
@@ -11992,7 +12044,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B677" s="3">
         <v>676</v>
@@ -12004,7 +12056,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B678" s="3">
         <v>677</v>
@@ -12016,7 +12068,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="4" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="B679" s="3">
         <v>678</v>
@@ -12040,7 +12092,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B681" s="3">
         <v>680</v>
@@ -12052,7 +12104,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B682" s="3">
         <v>681</v>
@@ -12064,7 +12116,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B683" s="3">
         <v>682</v>
@@ -12076,7 +12128,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="4" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B684" s="3">
         <v>683</v>
@@ -12088,7 +12140,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B685" s="3">
         <v>684</v>
@@ -12100,7 +12152,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B686" s="3">
         <v>685</v>
@@ -12112,7 +12164,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B687" s="3">
         <v>686</v>
@@ -12124,7 +12176,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B688" s="3">
         <v>687</v>
@@ -12136,7 +12188,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B689" s="3">
         <v>688</v>
@@ -12148,7 +12200,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B690" s="3">
         <v>689</v>
@@ -12160,7 +12212,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="4" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B691" s="3">
         <v>690</v>
@@ -12172,7 +12224,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="4" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B692" s="3">
         <v>691</v>
@@ -12184,7 +12236,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B693" s="3">
         <v>692</v>
@@ -12196,7 +12248,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B694" s="3">
         <v>693</v>
@@ -12208,7 +12260,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="4" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B695" s="3">
         <v>694</v>
@@ -12220,7 +12272,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="4" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B696" s="3">
         <v>695</v>
@@ -12232,7 +12284,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B697" s="3">
         <v>696</v>
@@ -12244,7 +12296,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="4" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B698" s="3">
         <v>697</v>
@@ -12256,7 +12308,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B699" s="3">
         <v>698</v>
@@ -12268,7 +12320,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B700" s="3">
         <v>699</v>
@@ -12280,7 +12332,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B701" s="3">
         <v>700</v>
@@ -12292,7 +12344,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B702" s="3">
         <v>701</v>
@@ -12304,7 +12356,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B703" s="3">
         <v>702</v>
@@ -12316,7 +12368,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B704" s="3">
         <v>703</v>
@@ -12328,7 +12380,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B705" s="3">
         <v>704</v>
@@ -12340,7 +12392,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B706" s="3">
         <v>705</v>
@@ -12352,7 +12404,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B707" s="3">
         <v>706</v>
@@ -12364,7 +12416,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B708" s="3">
         <v>707</v>
@@ -12376,7 +12428,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B709" s="3">
         <v>708</v>
@@ -12388,7 +12440,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B710" s="3">
         <v>709</v>
@@ -12400,7 +12452,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B711" s="3">
         <v>710</v>
@@ -12412,7 +12464,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B712" s="3">
         <v>711</v>
@@ -12424,7 +12476,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="4" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B713" s="3">
         <v>712</v>
@@ -12436,7 +12488,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B714" s="3">
         <v>713</v>
@@ -12448,7 +12500,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B715" s="3">
         <v>714</v>
@@ -12460,7 +12512,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B716" s="3">
         <v>715</v>
@@ -12472,7 +12524,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B717" s="3">
         <v>716</v>
@@ -12484,7 +12536,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B718" s="3">
         <v>717</v>
@@ -12496,7 +12548,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B719" s="3">
         <v>718</v>
@@ -12508,7 +12560,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B720" s="3">
         <v>719</v>
@@ -12520,7 +12572,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B721" s="3">
         <v>720</v>
@@ -12532,7 +12584,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="4" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B722" s="3">
         <v>721</v>
@@ -12544,7 +12596,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B723" s="3">
         <v>722</v>
@@ -12556,7 +12608,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B724" s="3">
         <v>723</v>
@@ -12568,7 +12620,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B725" s="3">
         <v>724</v>
@@ -12580,7 +12632,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B726" s="3">
         <v>725</v>
@@ -12592,7 +12644,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" s="4" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B727" s="3">
         <v>726</v>
@@ -12604,7 +12656,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" s="4" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B728" s="3">
         <v>727</v>
@@ -12616,7 +12668,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B729" s="3">
         <v>728</v>
@@ -12628,7 +12680,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B730" s="3">
         <v>729</v>
@@ -12664,7 +12716,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B733" s="3">
         <v>732</v>
@@ -12676,7 +12728,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B734" s="3">
         <v>733</v>
@@ -12690,7 +12742,7 @@
       <c r="A735" s="4"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="D735" s="6"/>
     </row>
@@ -12698,90 +12750,107 @@
       <c r="A736" s="4"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="D736" s="6"/>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="C737" s="6" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D737" s="6"/>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C738" s="6" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C739" s="6" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C740" s="6" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C741" s="6" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C742" s="6" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C743" s="6" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C744" s="6" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C745" s="6" t="s">
-        <v>856</v>
+        <v>851</v>
+      </c>
+      <c r="D745" s="6" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C746" t="s">
-        <v>842</v>
+        <v>849</v>
+      </c>
+      <c r="D746" s="6" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C747" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C748" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C749" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C750" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C751" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C752" t="s">
-        <v>687</v>
+        <v>834</v>
+      </c>
+      <c r="D752" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="753" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C753" t="s">
+        <v>847</v>
+      </c>
+      <c r="D753" s="6" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -12794,10 +12863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12806,1737 +12875,1747 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>686</v>
+      <c r="A1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <f>CONCATENATE(LEFT(DEC2HEX(B1,4),2),RIGHT(DEC2HEX(B1,4),2),"=",A1)</f>
+        <v>0000=A</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>687</v>
+      <c r="A2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C65" si="0">CONCATENATE(LEFT(DEC2HEX(B2,4),2),RIGHT(DEC2HEX(B2,4),2),"=",A2)</f>
+        <v>0001=B</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>685</v>
+      <c r="A3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0002=C</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>688</v>
+      <c r="A4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0003=D</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>689</v>
+      <c r="A5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0004=E</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>696</v>
+      <c r="A6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0005=F</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>CONCATENATE(RIGHT(DEC2HEX(B7,4),2),LEFT(DEC2HEX(B7,4),2),"=",A7)</f>
-        <v>0000=A</v>
+        <f t="shared" si="0"/>
+        <v>0006=G</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B8" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f t="shared" ref="C8:C71" si="0">CONCATENATE(RIGHT(DEC2HEX(B8,4),2),LEFT(DEC2HEX(B8,4),2),"=",A8)</f>
-        <v>0100=B</v>
+        <f t="shared" si="0"/>
+        <v>0007=H</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0200=C</v>
+        <v>0008=I</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B10" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0300=D</v>
+        <v>0009=J</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0400=E</v>
+        <v>000A=K</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B12" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0500=F</v>
+        <v>000B=L</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B13" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0600=G</v>
+        <v>000C=M</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B14" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0700=H</v>
+        <v>000D=N</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B15" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0800=I</v>
+        <v>000E=O</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B16" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0900=J</v>
+        <v>000F=P</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B17" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0A00=K</v>
+        <v>0010=Q</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B18" s="6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0B00=L</v>
+        <v>0011=R</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B19" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0C00=M</v>
+        <v>0012=S</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B20" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0D00=N</v>
+        <v>0013=T</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B21" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0E00=O</v>
+        <v>0014=U</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B22" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0F00=P</v>
+        <v>0015=V</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B23" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1000=Q</v>
+        <v>0016=W</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B24" s="6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1100=R</v>
+        <v>0017=X</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B25" s="6">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1200=S</v>
+        <v>0018=Y</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B26" s="6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1300=T</v>
+        <v>0019=Z</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>196</v>
+      <c r="A27" t="s">
+        <v>680</v>
       </c>
       <c r="B27" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1400=U</v>
+        <v xml:space="preserve">001A= </v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>197</v>
+      <c r="A28" t="s">
+        <v>680</v>
       </c>
       <c r="B28" s="6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1500=V</v>
+        <v xml:space="preserve">001B= </v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>198</v>
+      <c r="A29" t="s">
+        <v>680</v>
       </c>
       <c r="B29" s="6">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1600=W</v>
+        <v xml:space="preserve">001C= </v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>166</v>
+      <c r="A30" t="s">
+        <v>680</v>
       </c>
       <c r="B30" s="6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1700=X</v>
+        <v xml:space="preserve">001D= </v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>200</v>
+      <c r="A31" t="s">
+        <v>680</v>
       </c>
       <c r="B31" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1800=Y</v>
+        <v xml:space="preserve">001E= </v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>201</v>
+      <c r="A32" t="s">
+        <v>680</v>
       </c>
       <c r="B32" s="6">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1900=Z</v>
+        <v xml:space="preserve">001F= </v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>682</v>
+      <c r="A33" s="6" t="s">
+        <v>628</v>
       </c>
       <c r="B33" s="6">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1A00= </v>
+        <v>0020=a</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>682</v>
+      <c r="A34" s="6" t="s">
+        <v>629</v>
       </c>
       <c r="B34" s="6">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1B00= </v>
+        <v>0021=b</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>682</v>
+      <c r="A35" s="6" t="s">
+        <v>630</v>
       </c>
       <c r="B35" s="6">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1C00= </v>
+        <v>0022=c</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>682</v>
+      <c r="A36" s="6" t="s">
+        <v>631</v>
       </c>
       <c r="B36" s="6">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1D00= </v>
+        <v>0023=d</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>682</v>
+      <c r="A37" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="B37" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1E00= </v>
+        <v>0024=e</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>682</v>
+      <c r="A38" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="B38" s="6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1F00= </v>
+        <v>0025=f</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B39" s="6">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2000=a</v>
+        <v>0026=g</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B40" s="6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2100=b</v>
+        <v>0027=h</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B41" s="6">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2200=c</v>
+        <v>0028=i</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B42" s="6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2300=d</v>
+        <v>0029=j</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B43" s="6">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2400=e</v>
+        <v>002A=k</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B44" s="6">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2500=f</v>
+        <v>002B=l</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B45" s="6">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2600=g</v>
+        <v>002C=m</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B46" s="6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2700=h</v>
+        <v>002D=n</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B47" s="6">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2800=i</v>
+        <v>002E=o</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B48" s="6">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2900=j</v>
+        <v>002F=p</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B49" s="6">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2A00=k</v>
+        <v>0030=q</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B50" s="6">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2B00=l</v>
+        <v>0031=r</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B51" s="6">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2C00=m</v>
+        <v>0032=s</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B52" s="6">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2D00=n</v>
+        <v>0033=t</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B53" s="6">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2E00=o</v>
+        <v>0034=u</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B54" s="6">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2F00=p</v>
+        <v>0035=v</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B55" s="6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3000=q</v>
+        <v>0036=w</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B56" s="6">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3100=r</v>
+        <v>0037=x</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B57" s="6">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3200=s</v>
+        <v>0038=y</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B58" s="6">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3300=t</v>
+        <v>0039=z</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>650</v>
+      <c r="A59" t="s">
+        <v>680</v>
       </c>
       <c r="B59" s="6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3400=u</v>
+        <v xml:space="preserve">003A= </v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>651</v>
+      <c r="A60" t="s">
+        <v>680</v>
       </c>
       <c r="B60" s="6">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3500=v</v>
+        <v xml:space="preserve">003B= </v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>652</v>
+      <c r="A61" t="s">
+        <v>680</v>
       </c>
       <c r="B61" s="6">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3600=w</v>
+        <v xml:space="preserve">003C= </v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>653</v>
+      <c r="A62" t="s">
+        <v>680</v>
       </c>
       <c r="B62" s="6">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3700=x</v>
+        <v xml:space="preserve">003D= </v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>654</v>
+      <c r="A63" t="s">
+        <v>680</v>
       </c>
       <c r="B63" s="6">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3800=y</v>
+        <v xml:space="preserve">003E= </v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>655</v>
+      <c r="A64" t="s">
+        <v>680</v>
       </c>
       <c r="B64" s="6">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3900=z</v>
+        <v xml:space="preserve">003F= </v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>682</v>
+      <c r="A65" s="6">
+        <v>0</v>
       </c>
       <c r="B65" s="6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">3A00= </v>
+        <v>0040=0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>682</v>
+      <c r="A66" s="3">
+        <v>1</v>
       </c>
       <c r="B66" s="6">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">3B00= </v>
+        <f t="shared" ref="C66:C129" si="1">CONCATENATE(LEFT(DEC2HEX(B66,4),2),RIGHT(DEC2HEX(B66,4),2),"=",A66)</f>
+        <v>0041=1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>682</v>
+      <c r="A67" s="3">
+        <v>2</v>
       </c>
       <c r="B67" s="6">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">3C00= </v>
+        <f t="shared" si="1"/>
+        <v>0042=2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>682</v>
+      <c r="A68" s="6">
+        <v>3</v>
       </c>
       <c r="B68" s="6">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">3D00= </v>
+        <f t="shared" si="1"/>
+        <v>0043=3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>682</v>
+      <c r="A69" s="6">
+        <v>4</v>
       </c>
       <c r="B69" s="6">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">3E00= </v>
+        <f t="shared" si="1"/>
+        <v>0044=4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>682</v>
+      <c r="A70" s="6">
+        <v>5</v>
       </c>
       <c r="B70" s="6">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">3F00= </v>
+        <f t="shared" si="1"/>
+        <v>0045=5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B71" s="6">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4000=0</v>
+        <f t="shared" si="1"/>
+        <v>0046=6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>1</v>
+      <c r="A72" s="6">
+        <v>7</v>
       </c>
       <c r="B72" s="6">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" ref="C72:C135" si="1">CONCATENATE(RIGHT(DEC2HEX(B72,4),2),LEFT(DEC2HEX(B72,4),2),"=",A72)</f>
-        <v>4100=1</v>
+        <f t="shared" si="1"/>
+        <v>0047=7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>2</v>
+      <c r="A73" s="6">
+        <v>8</v>
       </c>
       <c r="B73" s="6">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>4200=2</v>
+        <v>0048=8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B74" s="6">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>4300=3</v>
+        <v>0049=9</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
-        <v>4</v>
+      <c r="A75" t="s">
+        <v>680</v>
       </c>
       <c r="B75" s="6">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>4400=4</v>
+        <v xml:space="preserve">004A= </v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
-        <v>5</v>
+      <c r="A76" t="s">
+        <v>680</v>
       </c>
       <c r="B76" s="6">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>4500=5</v>
+        <v xml:space="preserve">004B= </v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
-        <v>6</v>
+      <c r="A77" t="s">
+        <v>680</v>
       </c>
       <c r="B77" s="6">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>4600=6</v>
+        <v xml:space="preserve">004C= </v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
-        <v>7</v>
+      <c r="A78" t="s">
+        <v>680</v>
       </c>
       <c r="B78" s="6">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>4700=7</v>
+        <v xml:space="preserve">004D= </v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
-        <v>8</v>
+      <c r="A79" t="s">
+        <v>680</v>
       </c>
       <c r="B79" s="6">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>4800=8</v>
+        <v xml:space="preserve">004E= </v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
-        <v>9</v>
+      <c r="A80" t="s">
+        <v>680</v>
       </c>
       <c r="B80" s="6">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>4900=9</v>
+        <v xml:space="preserve">004F= </v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>682</v>
+      <c r="A81" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="B81" s="6">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4A00= </v>
+        <v>0050='t</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>682</v>
+      <c r="A82" s="7" t="s">
+        <v>654</v>
       </c>
       <c r="B82" s="6">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4B00= </v>
+        <v>0051='s</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>682</v>
+      <c r="A83" s="7" t="s">
+        <v>656</v>
       </c>
       <c r="B83" s="6">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4C00= </v>
+        <v>0052='I</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>682</v>
+      <c r="A84" s="7" t="s">
+        <v>657</v>
       </c>
       <c r="B84" s="6">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4D00= </v>
+        <v>0053='d</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>682</v>
+      <c r="A85" s="7" t="s">
+        <v>658</v>
       </c>
       <c r="B85" s="6">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4E00= </v>
+        <v>0054='m</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>682</v>
+      <c r="A86" s="7" t="s">
+        <v>659</v>
       </c>
       <c r="B86" s="6">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4F00= </v>
+        <v>0055='r</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B87" s="6">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5000='t</v>
+        <v>0056='v</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>656</v>
+      <c r="A88" t="s">
+        <v>661</v>
       </c>
       <c r="B88" s="6">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5100='s</v>
+        <v>0057=A</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>658</v>
+      <c r="A89" t="s">
+        <v>662</v>
       </c>
       <c r="B89" s="6">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5200='I</v>
+        <v>0058=O</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>659</v>
+      <c r="A90" t="s">
+        <v>663</v>
       </c>
       <c r="B90" s="6">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5300='d</v>
+        <v>0059=U</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>660</v>
+      <c r="A91" t="s">
+        <v>664</v>
       </c>
       <c r="B91" s="6">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5400='m</v>
+        <v>005A=a</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
-        <v>661</v>
+      <c r="A92" t="s">
+        <v>665</v>
       </c>
       <c r="B92" s="6">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5500='r</v>
+        <v>005B=o</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>662</v>
+      <c r="A93" t="s">
+        <v>666</v>
       </c>
       <c r="B93" s="6">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5600='v</v>
+        <v>005C=u</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B94" s="6">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5700=A</v>
+        <v>005D=β</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B95" s="6">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5800=O</v>
+        <v>0060=-</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B96" s="6">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5900=U</v>
+        <v>0061="</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B97" s="6">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5A00=a</v>
+        <v>0062=?</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B98" s="6">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5B00=o</v>
+        <v>0063=!</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B99" s="6">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5C00=u</v>
+        <v>0064=…</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>669</v>
+      <c r="A100" s="7" t="s">
+        <v>674</v>
       </c>
       <c r="B100" s="6">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>5D00=β</v>
+        <v>0065='</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B101" s="6">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6000=-</v>
+        <v>0066=:</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B102" s="6">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6100="</v>
+        <v>0067=;</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B103" s="6">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6200=?</v>
+        <v>0068=+</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B104" s="6">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6300=!</v>
+        <v>0069=-</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B105" s="6">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6400=…</v>
+        <v>006A=(</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>676</v>
+      <c r="A106" t="s">
+        <v>678</v>
       </c>
       <c r="B106" s="6">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6500='</v>
+        <v>006B=)</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B107" s="6">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6600=:</v>
+        <v>006C=.</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>677</v>
+      <c r="A108" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="B108" s="6">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6700=;</v>
+        <v>006D=○</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>678</v>
+      <c r="A109" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="B109" s="6">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6800=+</v>
+        <v>006E=X</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>670</v>
+      <c r="A110" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B110" s="6">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6900=-</v>
+        <v>006F=△</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>679</v>
+      <c r="A111" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B111" s="6">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6A00=(</v>
+        <v>0070=□</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>680</v>
+      <c r="A112" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="B112" s="6">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6B00=)</v>
+        <v>0071=/</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>681</v>
+      <c r="A113" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="B113" s="6">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6C00=.</v>
+        <v>0072=[down]</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="B114" s="6">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6D00=○</v>
+        <v>0073=[up]</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>166</v>
+      <c r="A115" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="B115" s="6">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6E00=X</v>
+        <v>0074=～</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B116" s="6">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>6F00=△</v>
+        <v>0075=_</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>167</v>
+        <v>683</v>
       </c>
       <c r="B117" s="6">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7000=□</v>
+        <v>0076=&amp;</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B118" s="6">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7100=/</v>
+        <v>0077=[star]</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B119" s="6">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7200=[down]</v>
+        <v>0078=[unstar]</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B120" s="6">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7300=[up]</v>
+        <v>0079=[one]</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>209</v>
+      <c r="A121" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="B121" s="6">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7400=～</v>
+        <v>007A=[two]</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B122" s="6">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7500=_</v>
+        <v>007B=[three]</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>690</v>
+      <c r="A123" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="B123" s="6">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7600=&amp;</v>
+        <v>007C=[four]</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>218</v>
+      <c r="A124" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B124" s="6">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7700=[star]</v>
+        <v>007D=[five]</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B125" s="6">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7800=[unstar]</v>
+        <v>007E=[six]</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>225</v>
+        <v>684</v>
       </c>
       <c r="B126" s="6">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7900=[one]</v>
+        <v>007F=…</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B127" s="6">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7A00=[two]</v>
+        <v>0080=[heart]</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B128" s="6">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7B00=[three]</v>
+        <v>0081=[unheart]</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>228</v>
+      <c r="A129" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="B129" s="6">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7C00=[four]</v>
+        <v>0082=[chicken]</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>229</v>
+      <c r="A130" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="B130" s="6">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>7D00=[five]</v>
+        <f t="shared" ref="C130:C142" si="2">CONCATENATE(LEFT(DEC2HEX(B130,4),2),RIGHT(DEC2HEX(B130,4),2),"=",A130)</f>
+        <v>0083=[dog]</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B131" s="6">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>7E00=[six]</v>
+        <f t="shared" si="2"/>
+        <v>0084=[animal]</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>691</v>
+        <v>215</v>
       </c>
       <c r="B132" s="6">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>7F00=…</v>
+        <f t="shared" si="2"/>
+        <v>0085=[cow]</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B133" s="6">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>8000=[heart]</v>
+        <f t="shared" si="2"/>
+        <v>0086=[fish]</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B134" s="6">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C134" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>8100=[unheart]</v>
+        <f t="shared" si="2"/>
+        <v>0087=[LD]</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B135" s="6">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>8200=[chicken]</v>
+        <f t="shared" si="2"/>
+        <v>0088=[LU]</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B136" s="6">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f t="shared" ref="C136:C148" si="2">CONCATENATE(RIGHT(DEC2HEX(B136,4),2),LEFT(DEC2HEX(B136,4),2),"=",A136)</f>
-        <v>8300=[dog]</v>
+        <f t="shared" si="2"/>
+        <v>0089=[RU]</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B137" s="6">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>8400=[animal]</v>
+        <v>008A=[RD]</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B138" s="6">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>8500=[cow]</v>
+        <v>008B=[king]</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>216</v>
+        <v>685</v>
       </c>
       <c r="B139" s="6">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>8600=[fish]</v>
+        <v>008C=,</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>220</v>
+      <c r="A140" s="5" t="s">
+        <v>686</v>
       </c>
       <c r="B140" s="6">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>8700=[LD]</v>
+        <v>008D='</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>221</v>
+        <v>687</v>
       </c>
       <c r="B141" s="6">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>8800=[LU]</v>
+        <v>008E="</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>223</v>
+        <v>688</v>
       </c>
       <c r="B142" s="6">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>8900=[RU]</v>
+        <v>008F=%</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B143" s="6">
-        <v>138</v>
-      </c>
-      <c r="C143" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>8A00=[RD]</v>
+      <c r="C143" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B144" s="6">
-        <v>139</v>
-      </c>
-      <c r="C144" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>8B00=[king]</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="B145" s="6">
-        <v>140</v>
-      </c>
-      <c r="C145" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>8C00=,</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="B146" s="6">
-        <v>141</v>
-      </c>
-      <c r="C146" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>8D00='</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="B147" s="6">
-        <v>142</v>
-      </c>
-      <c r="C147" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>8E00="</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="B148" s="6">
-        <v>143</v>
-      </c>
-      <c r="C148" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>8F00=%</v>
+      <c r="C144" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -14562,10 +14641,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -14573,13 +14652,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -14587,13 +14666,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -14601,13 +14680,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -14615,13 +14694,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -14629,13 +14708,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -14643,13 +14722,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -14657,13 +14736,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -14671,13 +14750,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -14685,13 +14764,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -14699,13 +14778,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -14713,13 +14792,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -14727,13 +14806,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -14741,13 +14820,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -14755,13 +14834,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -14769,13 +14848,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -14783,13 +14862,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -14797,13 +14876,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -14811,13 +14890,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -14825,13 +14904,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -14839,13 +14918,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -14853,13 +14932,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -14867,13 +14946,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E23">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -14881,13 +14960,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E24">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -14895,13 +14974,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E25">
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -14909,13 +14988,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E26">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -14923,13 +15002,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E27">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -14937,13 +15016,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E28">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -14951,13 +15030,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E29">
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -14965,13 +15044,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E30">
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -14979,13 +15058,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E31">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -14993,13 +15072,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E32">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -15007,13 +15086,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E33">
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -15021,7 +15100,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -15029,7 +15108,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -15037,7 +15116,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -15045,7 +15124,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -15053,4 +15132,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB54BAA-6B30-4F8D-A9C0-7711961623D1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8">
+        <v>57091</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>77375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>31917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>128364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>